--- a/docs/examples/train-TR-ID1-1.xlsx
+++ b/docs/examples/train-TR-ID1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FB4EC2-357B-4AC4-85B8-AD86C21F9DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EDA41-D170-4D39-B19A-C16C5238C063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="660" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,64 +34,64 @@
     <t>T</t>
   </si>
   <si>
-    <t>TR/8350/ID1/2021/1/2021-02-01</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-02</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-03</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-04</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-05</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-06</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/1/2021-02-07</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-07</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-08</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-09</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-10</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-11</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-12</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/3/2021-02-13</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-15</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-16</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-17</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-18</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-19</t>
-  </si>
-  <si>
-    <t>TR/8350/ID1/2021/5/2021-02-20</t>
+    <t>TR/8350/ID1/2021/10.01/2021-02-01</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-02</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-03</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-04</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-05</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-06</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/10.01/2021-02-07</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-07</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-08</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-09</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-10</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-11</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-12</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/20.01/2021-02-13</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-15</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-16</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-17</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-18</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-19</t>
+  </si>
+  <si>
+    <t>TR/8350/ID1/2021/30.01/2021-02-20</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,15 +113,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,17 +159,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,12 +480,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,10 +588,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>44234.006944444453</v>
       </c>
       <c r="D8" s="2">
@@ -584,10 +603,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
         <v>44234.993055555547</v>
       </c>
       <c r="D9" s="2">

--- a/docs/examples/train-TR-ID1-1.xlsx
+++ b/docs/examples/train-TR-ID1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EDA41-D170-4D39-B19A-C16C5238C063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B47C77-EA99-45DA-B258-608819AC5751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,87 +20,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>T</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+  <si>
+    <t>Departure D</t>
+  </si>
+  <si>
+    <t>Departure S</t>
+  </si>
+  <si>
+    <t>Arrival H1</t>
+  </si>
+  <si>
+    <t>Departure H1</t>
+  </si>
+  <si>
+    <t>Arrival T</t>
   </si>
   <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-01</t>
   </si>
   <si>
+    <t>Mon 01.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Tue 02.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Tue 02.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-02</t>
   </si>
   <si>
+    <t>Tue 02.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Wed 03.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Wed 03.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-03</t>
   </si>
   <si>
+    <t>Wed 03.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Thu 04.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Thu 04.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-04</t>
   </si>
   <si>
+    <t>Thu 04.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Fri 05.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Fri 05.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-05</t>
   </si>
   <si>
+    <t>Fri 05.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Sat 06.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Sat 06.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-06</t>
   </si>
   <si>
+    <t>Sat 06.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Sun 07.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Sun 07.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/10.01/2021-02-07</t>
   </si>
   <si>
+    <t>Sun 07.02.21 00:10  0</t>
+  </si>
+  <si>
+    <t>Mon 08.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Mon 08.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-07</t>
   </si>
   <si>
+    <t>Sun 07.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Tue 09.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Tue 09.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-08</t>
   </si>
   <si>
+    <t>Mon 08.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Wed 10.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Wed 10.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-09</t>
   </si>
   <si>
+    <t>Tue 09.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 11.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Thu 11.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-10</t>
   </si>
   <si>
+    <t>Wed 10.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 12.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Fri 12.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-11</t>
   </si>
   <si>
+    <t>Thu 11.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 13.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Sat 13.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-12</t>
   </si>
   <si>
+    <t>Fri 12.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sun 14.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Sun 14.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-13</t>
   </si>
   <si>
+    <t>Sat 13.02.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Mon 15.02.21 00:10  2</t>
+  </si>
+  <si>
+    <t>Mon 15.02.21 07:40  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-15</t>
   </si>
   <si>
+    <t>Mon 15.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Tue 16.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Tue 16.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-16</t>
   </si>
   <si>
+    <t>Tue 16.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Wed 17.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Wed 17.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-17</t>
   </si>
   <si>
+    <t>Wed 17.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Thu 18.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Thu 18.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-18</t>
   </si>
   <si>
+    <t>Thu 18.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Fri 19.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Fri 19.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-19</t>
   </si>
   <si>
+    <t>Fri 19.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 08:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-20</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 02:00  0</t>
+  </si>
+  <si>
+    <t>Sun 21.02.21 00:30  1</t>
+  </si>
+  <si>
+    <t>Sun 21.02.21 08:00  1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,29 +290,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,24 +334,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,312 +645,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>44228.006944444453</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44229.020833333343</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44229.333333333343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>44229.006944444453</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44230.020833333343</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44230.333333333343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>44230.006944444453</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44231.020833333343</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44231.333333333343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>44231.006944444453</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44232.020833333343</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44232.333333333343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>44232.006944444453</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44233.020833333343</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44233.333333333343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>44233.006944444453</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44234.020833333343</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44234.333333333343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
-        <v>44234.006944444453</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44235.020833333343</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44235.333333333343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <v>44234.993055555547</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44236.006944444453</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44236.319444444453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>44235.993055555547</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44237.006944444453</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44237.319444444453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>44236.993055555547</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44238.006944444453</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44238.319444444453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>44237.993055555547</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44239.006944444453</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44239.319444444453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>44238.993055555547</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44240.006944444453</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44240.319444444453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
-        <v>44239.993055555547</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44241.006944444453</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44241.319444444453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
-        <v>44240.993055555547</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44242.006944444453</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44242.319444444453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>44242.083333333343</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44243.020833333343</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44243.333333333343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>44243.083333333343</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44244.020833333343</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44244.333333333343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>44244.083333333343</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44245.020833333343</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44245.333333333343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>44245.083333333343</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44246.020833333343</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44246.333333333343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>44246.083333333343</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44247.020833333343</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44247.333333333343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>44247.083333333343</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44248.020833333343</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44248.333333333343</v>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
